--- a/TI/Lab2/Key.xlsx
+++ b/TI/Lab2/Key.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\4 sem\TI\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AEFB00C-4C7C-4C44-844F-A40F5B03AA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4747AAAE-6B54-43BF-9A3A-48367EE97748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,18 +242,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -270,7 +258,19 @@
     <xf numFmtId="1" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -590,7 +590,7 @@
   <dimension ref="A1:AC140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+      <selection activeCell="D1" sqref="D1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,30 +602,30 @@
     <row r="1" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="14"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="20"/>
       <c r="AB1" s="4" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
     <row r="2" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="12">
+      <c r="D2" s="16">
         <v>24</v>
       </c>
       <c r="E2" s="12">
@@ -693,28 +693,28 @@
       <c r="W2" s="12">
         <v>5</v>
       </c>
-      <c r="X2" s="20">
+      <c r="X2" s="16">
         <v>4</v>
       </c>
-      <c r="Y2" s="20">
+      <c r="Y2" s="16">
         <v>3</v>
       </c>
       <c r="Z2" s="12">
         <v>2</v>
       </c>
-      <c r="AA2" s="22">
+      <c r="AA2" s="18">
         <v>1</v>
       </c>
       <c r="AB2" s="11"/>
     </row>
     <row r="3" spans="2:28" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3" s="1">
@@ -768,22 +768,22 @@
       <c r="U3" s="1">
         <v>1</v>
       </c>
-      <c r="V3" s="17">
-        <v>1</v>
-      </c>
-      <c r="W3" s="17">
-        <v>1</v>
-      </c>
-      <c r="X3" s="21">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="21">
+      <c r="V3" s="13">
+        <v>1</v>
+      </c>
+      <c r="W3" s="13">
+        <v>1</v>
+      </c>
+      <c r="X3" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="17">
         <v>1</v>
       </c>
       <c r="Z3" s="1">
         <v>1</v>
       </c>
-      <c r="AA3" s="21">
+      <c r="AA3" s="17">
         <v>1</v>
       </c>
       <c r="AB3" s="3">
@@ -792,11 +792,11 @@
       </c>
     </row>
     <row r="4" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="17">
         <f>E3</f>
         <v>1</v>
       </c>
@@ -868,19 +868,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W4" s="17">
+      <c r="W4" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X4" s="21">
+      <c r="X4" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Y4" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -888,7 +888,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="AA4" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -898,11 +898,11 @@
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="17">
         <f t="shared" ref="D5:P5" si="1">E4</f>
         <v>1</v>
       </c>
@@ -974,19 +974,19 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X5" s="21">
+      <c r="X5" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="Y5" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -994,21 +994,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="AA5" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB5" s="3">
-        <f t="shared" ref="AB5:AB66" si="3">IF(_xlfn.XOR(D5,X5,Y5,AA5),1,0)</f>
+        <f t="shared" ref="AB5:AB48" si="3">IF(_xlfn.XOR(D5,X5,Y5,AA5),1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B6" s="15"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="17">
         <f t="shared" ref="D6:E7" si="4">E5</f>
         <v>1</v>
       </c>
@@ -1080,19 +1080,19 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="V6" s="17">
+      <c r="V6" s="13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W6" s="17">
+      <c r="W6" s="13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="X6" s="21">
+      <c r="X6" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="Y6" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1100,7 +1100,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AA6" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1110,11 +1110,11 @@
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B7" s="15"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="17">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -1186,19 +1186,19 @@
         <f t="shared" ref="U7" si="20">V6</f>
         <v>1</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="13">
         <f t="shared" ref="V7" si="21">W6</f>
         <v>1</v>
       </c>
-      <c r="W7" s="17">
+      <c r="W7" s="13">
         <f t="shared" ref="W7" si="22">X6</f>
         <v>1</v>
       </c>
-      <c r="X7" s="21">
+      <c r="X7" s="17">
         <f t="shared" ref="X7" si="23">Y6</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="21">
+      <c r="Y7" s="17">
         <f t="shared" ref="Y7" si="24">Z6</f>
         <v>1</v>
       </c>
@@ -1206,7 +1206,7 @@
         <f t="shared" ref="Z7" si="25">AA6</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="21">
+      <c r="AA7" s="17">
         <f t="shared" ref="AA7" si="26">AB6</f>
         <v>0</v>
       </c>
@@ -1216,11 +1216,11 @@
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B8" s="15"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="9">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="17">
         <f t="shared" ref="D8:D28" si="27">E7</f>
         <v>1</v>
       </c>
@@ -1292,19 +1292,19 @@
         <f t="shared" ref="U8:U28" si="44">V7</f>
         <v>1</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="13">
         <f t="shared" ref="V8:V28" si="45">W7</f>
         <v>1</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="13">
         <f t="shared" ref="W8:W28" si="46">X7</f>
         <v>0</v>
       </c>
-      <c r="X8" s="21">
+      <c r="X8" s="17">
         <f t="shared" ref="X8:X28" si="47">Y7</f>
         <v>1</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="Y8" s="17">
         <f t="shared" ref="Y8:Y28" si="48">Z7</f>
         <v>0</v>
       </c>
@@ -1312,7 +1312,7 @@
         <f t="shared" ref="Z8:Z28" si="49">AA7</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="21">
+      <c r="AA8" s="17">
         <f t="shared" ref="AA8:AA28" si="50">AB7</f>
         <v>0</v>
       </c>
@@ -1322,11 +1322,11 @@
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="9">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -1398,19 +1398,19 @@
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="V9" s="17">
+      <c r="V9" s="13">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="13">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="X9" s="21">
+      <c r="X9" s="17">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="21">
+      <c r="Y9" s="17">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -1418,7 +1418,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="21">
+      <c r="AA9" s="17">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -1428,11 +1428,11 @@
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B10" s="15"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -1504,19 +1504,19 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="V10" s="17">
+      <c r="V10" s="13">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="W10" s="17">
+      <c r="W10" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="X10" s="21">
+      <c r="X10" s="17">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="21">
+      <c r="Y10" s="17">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -1524,7 +1524,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="21">
+      <c r="AA10" s="17">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
@@ -1534,11 +1534,11 @@
       </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="9">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -1610,19 +1610,19 @@
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="V11" s="17">
+      <c r="V11" s="13">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W11" s="17">
+      <c r="W11" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="X11" s="21">
+      <c r="X11" s="17">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="21">
+      <c r="Y11" s="17">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -1630,7 +1630,7 @@
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="AA11" s="21">
+      <c r="AA11" s="17">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -1640,11 +1640,11 @@
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B12" s="15"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="9">
         <v>10</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -1716,19 +1716,19 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="V12" s="17">
+      <c r="V12" s="13">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W12" s="17">
+      <c r="W12" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="X12" s="21">
+      <c r="X12" s="17">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="21">
+      <c r="Y12" s="17">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
@@ -1736,7 +1736,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="21">
+      <c r="AA12" s="17">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
@@ -1746,11 +1746,11 @@
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B13" s="15"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="9">
         <v>11</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -1822,19 +1822,19 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="V13" s="17">
+      <c r="V13" s="13">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W13" s="17">
+      <c r="W13" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="X13" s="21">
+      <c r="X13" s="17">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="21">
+      <c r="Y13" s="17">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -1842,7 +1842,7 @@
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="AA13" s="21">
+      <c r="AA13" s="17">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
@@ -1852,11 +1852,11 @@
       </c>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B14" s="15"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="9">
         <v>12</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -1928,19 +1928,19 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="V14" s="17">
+      <c r="V14" s="13">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W14" s="17">
+      <c r="W14" s="13">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="X14" s="21">
+      <c r="X14" s="17">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="21">
+      <c r="Y14" s="17">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
@@ -1948,7 +1948,7 @@
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="AA14" s="21">
+      <c r="AA14" s="17">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
@@ -1958,11 +1958,11 @@
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="9">
         <v>13</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -2034,19 +2034,19 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="V15" s="17">
+      <c r="V15" s="13">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="W15" s="17">
+      <c r="W15" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="X15" s="21">
+      <c r="X15" s="17">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="21">
+      <c r="Y15" s="17">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
@@ -2054,7 +2054,7 @@
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="AA15" s="21">
+      <c r="AA15" s="17">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
@@ -2064,11 +2064,11 @@
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="9">
         <v>14</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -2140,19 +2140,19 @@
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="V16" s="17">
+      <c r="V16" s="13">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W16" s="17">
+      <c r="W16" s="13">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="X16" s="21">
+      <c r="X16" s="17">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="21">
+      <c r="Y16" s="17">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
@@ -2160,7 +2160,7 @@
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="AA16" s="21">
+      <c r="AA16" s="17">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -2170,11 +2170,11 @@
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="9">
         <v>15</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -2246,19 +2246,19 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="V17" s="17">
+      <c r="V17" s="13">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="W17" s="17">
+      <c r="W17" s="13">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="X17" s="21">
+      <c r="X17" s="17">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="Y17" s="21">
+      <c r="Y17" s="17">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
@@ -2266,7 +2266,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="21">
+      <c r="AA17" s="17">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
@@ -2276,11 +2276,11 @@
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="9">
         <v>16</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -2352,19 +2352,19 @@
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="V18" s="17">
+      <c r="V18" s="13">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="W18" s="17">
+      <c r="W18" s="13">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="X18" s="21">
+      <c r="X18" s="17">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="Y18" s="21">
+      <c r="Y18" s="17">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -2372,7 +2372,7 @@
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="AA18" s="21">
+      <c r="AA18" s="17">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -2382,11 +2382,11 @@
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="9">
         <v>17</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -2458,19 +2458,19 @@
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="V19" s="17">
+      <c r="V19" s="13">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W19" s="13">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="X19" s="21">
+      <c r="X19" s="17">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="21">
+      <c r="Y19" s="17">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
@@ -2478,7 +2478,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="21">
+      <c r="AA19" s="17">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -2488,11 +2488,11 @@
       </c>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B20" s="15"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="9">
         <v>18</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -2564,19 +2564,19 @@
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="V20" s="17">
+      <c r="V20" s="13">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="W20" s="17">
+      <c r="W20" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="X20" s="21">
+      <c r="X20" s="17">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="Y20" s="21">
+      <c r="Y20" s="17">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -2584,7 +2584,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="21">
+      <c r="AA20" s="17">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -2594,11 +2594,11 @@
       </c>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="9">
         <v>19</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -2670,19 +2670,19 @@
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="V21" s="17">
+      <c r="V21" s="13">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W21" s="17">
+      <c r="W21" s="13">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="X21" s="21">
+      <c r="X21" s="17">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="Y21" s="17">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -2690,7 +2690,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="21">
+      <c r="AA21" s="17">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -2700,11 +2700,11 @@
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="9">
         <v>20</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -2776,19 +2776,19 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="V22" s="17">
+      <c r="V22" s="13">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="W22" s="17">
+      <c r="W22" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="X22" s="21">
+      <c r="X22" s="17">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="21">
+      <c r="Y22" s="17">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -2796,7 +2796,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="21">
+      <c r="AA22" s="17">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
@@ -2806,11 +2806,11 @@
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B23" s="15"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="9">
         <v>21</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -2882,19 +2882,19 @@
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="V23" s="17">
+      <c r="V23" s="13">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W23" s="17">
+      <c r="W23" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="X23" s="21">
+      <c r="X23" s="17">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="21">
+      <c r="Y23" s="17">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -2902,7 +2902,7 @@
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="AA23" s="21">
+      <c r="AA23" s="17">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
@@ -2912,11 +2912,11 @@
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B24" s="15"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="9">
         <v>22</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -2988,19 +2988,19 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="V24" s="17">
+      <c r="V24" s="13">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W24" s="17">
+      <c r="W24" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X24" s="17">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="21">
+      <c r="Y24" s="17">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
@@ -3008,7 +3008,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="21">
+      <c r="AA24" s="17">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
@@ -3018,11 +3018,11 @@
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B25" s="15"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="9">
         <v>23</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -3094,19 +3094,19 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="V25" s="17">
+      <c r="V25" s="13">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W25" s="17">
+      <c r="W25" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="X25" s="21">
+      <c r="X25" s="17">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="Y25" s="21">
+      <c r="Y25" s="17">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -3114,7 +3114,7 @@
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="AA25" s="21">
+      <c r="AA25" s="17">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
@@ -3124,11 +3124,11 @@
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B26" s="15"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="9">
         <v>24</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -3200,19 +3200,19 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="V26" s="17">
+      <c r="V26" s="13">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W26" s="17">
+      <c r="W26" s="13">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="X26" s="21">
+      <c r="X26" s="17">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="21">
+      <c r="Y26" s="17">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
@@ -3220,7 +3220,7 @@
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="AA26" s="21">
+      <c r="AA26" s="17">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
@@ -3230,11 +3230,11 @@
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B27" s="15"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="9">
         <v>25</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="17">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -3306,19 +3306,19 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="V27" s="17">
+      <c r="V27" s="13">
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
-      <c r="W27" s="17">
+      <c r="W27" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="X27" s="21">
+      <c r="X27" s="17">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="Y27" s="21">
+      <c r="Y27" s="17">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
@@ -3326,7 +3326,7 @@
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="AA27" s="21">
+      <c r="AA27" s="17">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
@@ -3336,11 +3336,11 @@
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B28" s="15"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="9">
         <v>26</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="17">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
@@ -3412,19 +3412,19 @@
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="V28" s="17">
+      <c r="V28" s="13">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="W28" s="17">
+      <c r="W28" s="13">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="X28" s="21">
+      <c r="X28" s="17">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="Y28" s="21">
+      <c r="Y28" s="17">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
@@ -3432,7 +3432,7 @@
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="AA28" s="21">
+      <c r="AA28" s="17">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
@@ -3442,104 +3442,104 @@
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B29" s="15"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="9">
         <v>27</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" ref="D29:D58" si="51">E28</f>
+      <c r="D29" s="17">
+        <f t="shared" ref="D29:D48" si="51">E28</f>
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" ref="E29:E58" si="52">F28</f>
+        <f t="shared" ref="E29:E48" si="52">F28</f>
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" ref="F29:F58" si="53">G28</f>
+        <f t="shared" ref="F29:F48" si="53">G28</f>
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" ref="G29:G58" si="54">H28</f>
+        <f t="shared" ref="G29:G48" si="54">H28</f>
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" ref="H29:H58" si="55">I28</f>
+        <f t="shared" ref="H29:H48" si="55">I28</f>
         <v>1</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" ref="I29:I58" si="56">J28</f>
+        <f t="shared" ref="I29:I48" si="56">J28</f>
         <v>0</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" ref="J29:J58" si="57">K28</f>
+        <f t="shared" ref="J29:J48" si="57">K28</f>
         <v>1</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" ref="K29:K58" si="58">L28</f>
+        <f t="shared" ref="K29:K48" si="58">L28</f>
         <v>1</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" ref="L29:L58" si="59">M28</f>
+        <f t="shared" ref="L29:L48" si="59">M28</f>
         <v>1</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" ref="M29:M58" si="60">N28</f>
+        <f t="shared" ref="M29:M48" si="60">N28</f>
         <v>1</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" ref="N29:N58" si="61">O28</f>
+        <f t="shared" ref="N29:N48" si="61">O28</f>
         <v>0</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" ref="O29:O58" si="62">P28</f>
+        <f t="shared" ref="O29:O48" si="62">P28</f>
         <v>1</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" ref="P29:P58" si="63">Q28</f>
+        <f t="shared" ref="P29:P48" si="63">Q28</f>
         <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" ref="Q29:Q58" si="64">R28</f>
+        <f t="shared" ref="Q29:Q48" si="64">R28</f>
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" ref="R29:R58" si="65">S28</f>
+        <f t="shared" ref="R29:R48" si="65">S28</f>
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" ref="S29:S58" si="66">T28</f>
+        <f t="shared" ref="S29:S48" si="66">T28</f>
         <v>0</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" ref="T29:T58" si="67">U28</f>
+        <f t="shared" ref="T29:T48" si="67">U28</f>
         <v>1</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" ref="U29:U58" si="68">V28</f>
-        <v>0</v>
-      </c>
-      <c r="V29" s="17">
-        <f t="shared" ref="V29:V58" si="69">W28</f>
-        <v>1</v>
-      </c>
-      <c r="W29" s="17">
-        <f t="shared" ref="W29:W58" si="70">X28</f>
-        <v>1</v>
-      </c>
-      <c r="X29" s="21">
-        <f t="shared" ref="X29:X58" si="71">Y28</f>
-        <v>1</v>
-      </c>
-      <c r="Y29" s="21">
-        <f t="shared" ref="Y29:Y58" si="72">Z28</f>
+        <f t="shared" ref="U29:U48" si="68">V28</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="13">
+        <f t="shared" ref="V29:V48" si="69">W28</f>
+        <v>1</v>
+      </c>
+      <c r="W29" s="13">
+        <f t="shared" ref="W29:W48" si="70">X28</f>
+        <v>1</v>
+      </c>
+      <c r="X29" s="17">
+        <f t="shared" ref="X29:X48" si="71">Y28</f>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="17">
+        <f t="shared" ref="Y29:Y48" si="72">Z28</f>
         <v>1</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" ref="Z29:Z58" si="73">AA28</f>
-        <v>1</v>
-      </c>
-      <c r="AA29" s="21">
-        <f t="shared" ref="AA29:AA58" si="74">AB28</f>
+        <f t="shared" ref="Z29:Z48" si="73">AA28</f>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="17">
+        <f t="shared" ref="AA29:AA48" si="74">AB28</f>
         <v>0</v>
       </c>
       <c r="AB29" s="3">
@@ -3548,11 +3548,11 @@
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B30" s="15"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="9">
         <v>28</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="17">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -3624,19 +3624,19 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="V30" s="17">
+      <c r="V30" s="13">
         <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="W30" s="17">
+      <c r="W30" s="13">
         <f t="shared" si="70"/>
         <v>1</v>
       </c>
-      <c r="X30" s="21">
+      <c r="X30" s="17">
         <f t="shared" si="71"/>
         <v>1</v>
       </c>
-      <c r="Y30" s="21">
+      <c r="Y30" s="17">
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
@@ -3644,7 +3644,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="21">
+      <c r="AA30" s="17">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -3654,11 +3654,11 @@
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B31" s="15"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="9">
         <v>29</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="17">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -3730,19 +3730,19 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="V31" s="17">
+      <c r="V31" s="13">
         <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="W31" s="17">
+      <c r="W31" s="13">
         <f t="shared" si="70"/>
         <v>1</v>
       </c>
-      <c r="X31" s="21">
+      <c r="X31" s="17">
         <f t="shared" si="71"/>
         <v>1</v>
       </c>
-      <c r="Y31" s="21">
+      <c r="Y31" s="17">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
@@ -3750,7 +3750,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="21">
+      <c r="AA31" s="17">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -3760,11 +3760,11 @@
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B32" s="15"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="9">
         <v>30</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="17">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -3836,19 +3836,19 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="V32" s="17">
+      <c r="V32" s="13">
         <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="W32" s="17">
+      <c r="W32" s="13">
         <f t="shared" si="70"/>
         <v>1</v>
       </c>
-      <c r="X32" s="21">
+      <c r="X32" s="17">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="21">
+      <c r="Y32" s="17">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
@@ -3856,7 +3856,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="21">
+      <c r="AA32" s="17">
         <f t="shared" si="74"/>
         <v>1</v>
       </c>
@@ -3866,11 +3866,11 @@
       </c>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B33" s="15"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="9">
         <v>31</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="17">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
@@ -3942,19 +3942,19 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="V33" s="17">
+      <c r="V33" s="13">
         <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="W33" s="17">
+      <c r="W33" s="13">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="X33" s="21">
+      <c r="X33" s="17">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="21">
+      <c r="Y33" s="17">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
@@ -3962,7 +3962,7 @@
         <f t="shared" si="73"/>
         <v>1</v>
       </c>
-      <c r="AA33" s="21">
+      <c r="AA33" s="17">
         <f t="shared" si="74"/>
         <v>1</v>
       </c>
@@ -3972,11 +3972,11 @@
       </c>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B34" s="15"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="9">
         <v>32</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="17">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -4048,19 +4048,19 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="V34" s="17">
+      <c r="V34" s="13">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="W34" s="17">
+      <c r="W34" s="13">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="X34" s="21">
+      <c r="X34" s="17">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="21">
+      <c r="Y34" s="17">
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
@@ -4068,7 +4068,7 @@
         <f t="shared" si="73"/>
         <v>1</v>
       </c>
-      <c r="AA34" s="21">
+      <c r="AA34" s="17">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -4078,11 +4078,11 @@
       </c>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B35" s="15"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="9">
         <v>33</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="17">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
@@ -4154,19 +4154,19 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="V35" s="17">
+      <c r="V35" s="13">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="W35" s="17">
+      <c r="W35" s="13">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="X35" s="21">
+      <c r="X35" s="17">
         <f t="shared" si="71"/>
         <v>1</v>
       </c>
-      <c r="Y35" s="21">
+      <c r="Y35" s="17">
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
@@ -4174,7 +4174,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="21">
+      <c r="AA35" s="17">
         <f t="shared" si="74"/>
         <v>1</v>
       </c>
@@ -4184,11 +4184,11 @@
       </c>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B36" s="15"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="9">
         <v>34</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="17">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
@@ -4260,19 +4260,19 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="V36" s="17">
+      <c r="V36" s="13">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="W36" s="17">
+      <c r="W36" s="13">
         <f t="shared" si="70"/>
         <v>1</v>
       </c>
-      <c r="X36" s="21">
+      <c r="X36" s="17">
         <f t="shared" si="71"/>
         <v>1</v>
       </c>
-      <c r="Y36" s="21">
+      <c r="Y36" s="17">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
@@ -4280,7 +4280,7 @@
         <f t="shared" si="73"/>
         <v>1</v>
       </c>
-      <c r="AA36" s="21">
+      <c r="AA36" s="17">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -4290,11 +4290,11 @@
       </c>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B37" s="15"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="9">
         <v>35</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="17">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
@@ -4366,19 +4366,19 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="V37" s="17">
+      <c r="V37" s="13">
         <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="W37" s="17">
+      <c r="W37" s="13">
         <f t="shared" si="70"/>
         <v>1</v>
       </c>
-      <c r="X37" s="21">
+      <c r="X37" s="17">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="21">
+      <c r="Y37" s="17">
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
@@ -4386,7 +4386,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="AA37" s="21">
+      <c r="AA37" s="17">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -4396,11 +4396,11 @@
       </c>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B38" s="15"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="9">
         <v>36</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="17">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
@@ -4472,19 +4472,19 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="V38" s="17">
+      <c r="V38" s="13">
         <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="W38" s="17">
+      <c r="W38" s="13">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="X38" s="21">
+      <c r="X38" s="17">
         <f t="shared" si="71"/>
         <v>1</v>
       </c>
-      <c r="Y38" s="21">
+      <c r="Y38" s="17">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
@@ -4492,7 +4492,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="21">
+      <c r="AA38" s="17">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -4502,11 +4502,11 @@
       </c>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B39" s="15"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="9">
         <v>37</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="17">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -4578,19 +4578,19 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="V39" s="17">
+      <c r="V39" s="13">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="W39" s="17">
+      <c r="W39" s="13">
         <f t="shared" si="70"/>
         <v>1</v>
       </c>
-      <c r="X39" s="21">
+      <c r="X39" s="17">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="21">
+      <c r="Y39" s="17">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
@@ -4598,7 +4598,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="21">
+      <c r="AA39" s="17">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -4608,11 +4608,11 @@
       </c>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B40" s="15"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="9">
         <v>38</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="17">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
@@ -4684,19 +4684,19 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="V40" s="17">
+      <c r="V40" s="13">
         <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="W40" s="17">
+      <c r="W40" s="13">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="X40" s="21">
+      <c r="X40" s="17">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="21">
+      <c r="Y40" s="17">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
@@ -4704,7 +4704,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="21">
+      <c r="AA40" s="17">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -4714,11 +4714,11 @@
       </c>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B41" s="15"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="9">
         <v>39</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="17">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -4790,19 +4790,19 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="V41" s="17">
+      <c r="V41" s="13">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="W41" s="17">
+      <c r="W41" s="13">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="X41" s="21">
+      <c r="X41" s="17">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="21">
+      <c r="Y41" s="17">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
@@ -4810,7 +4810,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="21">
+      <c r="AA41" s="17">
         <f t="shared" si="74"/>
         <v>1</v>
       </c>
@@ -4820,11 +4820,11 @@
       </c>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B42" s="15"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="9">
         <v>40</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="17">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -4896,19 +4896,19 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="V42" s="17">
+      <c r="V42" s="13">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="W42" s="17">
+      <c r="W42" s="13">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="X42" s="21">
+      <c r="X42" s="17">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="21">
+      <c r="Y42" s="17">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
@@ -4916,7 +4916,7 @@
         <f t="shared" si="73"/>
         <v>1</v>
       </c>
-      <c r="AA42" s="21">
+      <c r="AA42" s="17">
         <f t="shared" si="74"/>
         <v>1</v>
       </c>
@@ -4926,11 +4926,11 @@
       </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B43" s="15"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="9">
         <v>41</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="17">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -5002,19 +5002,19 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="V43" s="17">
+      <c r="V43" s="13">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="W43" s="17">
+      <c r="W43" s="13">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="X43" s="21">
+      <c r="X43" s="17">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="21">
+      <c r="Y43" s="17">
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
@@ -5022,7 +5022,7 @@
         <f t="shared" si="73"/>
         <v>1</v>
       </c>
-      <c r="AA43" s="21">
+      <c r="AA43" s="17">
         <f t="shared" si="74"/>
         <v>1</v>
       </c>
@@ -5032,11 +5032,11 @@
       </c>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B44" s="15"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="9">
         <v>42</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="17">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -5108,19 +5108,19 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="V44" s="17">
+      <c r="V44" s="13">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="W44" s="17">
+      <c r="W44" s="13">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="X44" s="21">
+      <c r="X44" s="17">
         <f t="shared" si="71"/>
         <v>1</v>
       </c>
-      <c r="Y44" s="21">
+      <c r="Y44" s="17">
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
@@ -5128,7 +5128,7 @@
         <f t="shared" si="73"/>
         <v>1</v>
       </c>
-      <c r="AA44" s="21">
+      <c r="AA44" s="17">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -5138,11 +5138,11 @@
       </c>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B45" s="15"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="9">
         <v>43</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="17">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
@@ -5214,19 +5214,19 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="V45" s="17">
+      <c r="V45" s="13">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="W45" s="17">
+      <c r="W45" s="13">
         <f t="shared" si="70"/>
         <v>1</v>
       </c>
-      <c r="X45" s="21">
+      <c r="X45" s="17">
         <f t="shared" si="71"/>
         <v>1</v>
       </c>
-      <c r="Y45" s="21">
+      <c r="Y45" s="17">
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
@@ -5234,7 +5234,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="AA45" s="21">
+      <c r="AA45" s="17">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -5244,11 +5244,11 @@
       </c>
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B46" s="15"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="9">
         <v>44</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="17">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -5320,19 +5320,19 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="V46" s="17">
+      <c r="V46" s="13">
         <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="W46" s="17">
+      <c r="W46" s="13">
         <f t="shared" si="70"/>
         <v>1</v>
       </c>
-      <c r="X46" s="21">
+      <c r="X46" s="17">
         <f t="shared" si="71"/>
         <v>1</v>
       </c>
-      <c r="Y46" s="21">
+      <c r="Y46" s="17">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
@@ -5340,7 +5340,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="AA46" s="21">
+      <c r="AA46" s="17">
         <f t="shared" si="74"/>
         <v>1</v>
       </c>
@@ -5350,11 +5350,11 @@
       </c>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B47" s="15"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="9">
         <v>45</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="17">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
@@ -5426,19 +5426,19 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="V47" s="17">
+      <c r="V47" s="13">
         <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="W47" s="17">
+      <c r="W47" s="13">
         <f t="shared" si="70"/>
         <v>1</v>
       </c>
-      <c r="X47" s="21">
+      <c r="X47" s="17">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="Y47" s="21">
+      <c r="Y47" s="17">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
@@ -5446,7 +5446,7 @@
         <f t="shared" si="73"/>
         <v>1</v>
       </c>
-      <c r="AA47" s="21">
+      <c r="AA47" s="17">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
@@ -5456,11 +5456,11 @@
       </c>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B48" s="15"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="9">
         <v>46</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="17">
         <f t="shared" si="51"/>
         <v>1</v>
       </c>
@@ -5532,19 +5532,19 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
-      <c r="V48" s="17">
+      <c r="V48" s="13">
         <f t="shared" si="69"/>
         <v>1</v>
       </c>
-      <c r="W48" s="17">
+      <c r="W48" s="13">
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="X48" s="21">
+      <c r="X48" s="17">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="Y48" s="21">
+      <c r="Y48" s="17">
         <f t="shared" si="72"/>
         <v>1</v>
       </c>
@@ -5552,7 +5552,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="AA48" s="21">
+      <c r="AA48" s="17">
         <f t="shared" si="74"/>
         <v>1</v>
       </c>
@@ -5562,65 +5562,65 @@
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B49" s="23"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="10"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-      <c r="AA49" s="17"/>
-      <c r="AB49" s="19"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="15"/>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B50" s="23"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="19"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="15"/>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B51" s="15"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="9"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5639,18 +5639,18 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="19"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="15"/>
       <c r="AC51" s="10"/>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B52" s="15"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="9"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5669,18 +5669,18 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="19"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="15"/>
       <c r="AC52" s="10"/>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B53" s="15"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="9"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -5699,18 +5699,18 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="19"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="15"/>
       <c r="AC53" s="10"/>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B54" s="15"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="9"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5729,18 +5729,18 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="17"/>
-      <c r="AB54" s="19"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
+      <c r="Z54" s="13"/>
+      <c r="AA54" s="13"/>
+      <c r="AB54" s="15"/>
       <c r="AC54" s="10"/>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B55" s="15"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="9"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -5759,18 +5759,18 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="19"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+      <c r="AA55" s="13"/>
+      <c r="AB55" s="15"/>
       <c r="AC55" s="10"/>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B56" s="15"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="9"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -5789,18 +5789,18 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="17"/>
-      <c r="AB56" s="19"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="15"/>
       <c r="AC56" s="10"/>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B57" s="15"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="9"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -5819,18 +5819,18 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17"/>
-      <c r="Z57" s="17"/>
-      <c r="AA57" s="17"/>
-      <c r="AB57" s="19"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="15"/>
       <c r="AC57" s="10"/>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.35">
-      <c r="B58" s="16"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="9"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -5849,14 +5849,14 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="17"/>
-      <c r="AA58" s="17"/>
-      <c r="AB58" s="19"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="13"/>
+      <c r="Z58" s="13"/>
+      <c r="AA58" s="13"/>
+      <c r="AB58" s="15"/>
       <c r="AC58" s="10"/>
     </row>
     <row r="59" spans="2:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -5878,14 +5878,14 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="19"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
+      <c r="Z59" s="13"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="15"/>
       <c r="AC59" s="10"/>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.35">
@@ -5907,14 +5907,14 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
-      <c r="X60" s="17"/>
-      <c r="Y60" s="17"/>
-      <c r="Z60" s="17"/>
-      <c r="AA60" s="17"/>
-      <c r="AB60" s="19"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="13"/>
+      <c r="Z60" s="13"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="15"/>
       <c r="AC60" s="10"/>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.35">
@@ -5936,14 +5936,14 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
-      <c r="X61" s="17"/>
-      <c r="Y61" s="17"/>
-      <c r="Z61" s="17"/>
-      <c r="AA61" s="17"/>
-      <c r="AB61" s="19"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="15"/>
       <c r="AC61" s="10"/>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.35">
@@ -5965,14 +5965,14 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
-      <c r="W62" s="17"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="17"/>
-      <c r="Z62" s="17"/>
-      <c r="AA62" s="17"/>
-      <c r="AB62" s="19"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+      <c r="AA62" s="13"/>
+      <c r="AB62" s="15"/>
       <c r="AC62" s="10"/>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.35">
@@ -5994,14 +5994,14 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
-      <c r="Z63" s="17"/>
-      <c r="AA63" s="17"/>
-      <c r="AB63" s="19"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
+      <c r="Y63" s="13"/>
+      <c r="Z63" s="13"/>
+      <c r="AA63" s="13"/>
+      <c r="AB63" s="15"/>
       <c r="AC63" s="10"/>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.35">
@@ -6023,14 +6023,14 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="17"/>
-      <c r="AB64" s="19"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="13"/>
+      <c r="AA64" s="13"/>
+      <c r="AB64" s="15"/>
       <c r="AC64" s="10"/>
     </row>
     <row r="65" spans="3:29" x14ac:dyDescent="0.35">
@@ -6052,14 +6052,14 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
-      <c r="U65" s="17"/>
-      <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="17"/>
-      <c r="Z65" s="17"/>
-      <c r="AA65" s="17"/>
-      <c r="AB65" s="19"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13"/>
+      <c r="Y65" s="13"/>
+      <c r="Z65" s="13"/>
+      <c r="AA65" s="13"/>
+      <c r="AB65" s="15"/>
       <c r="AC65" s="10"/>
     </row>
     <row r="66" spans="3:29" x14ac:dyDescent="0.35">
@@ -6081,14 +6081,14 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
-      <c r="U66" s="17"/>
-      <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
-      <c r="Z66" s="17"/>
-      <c r="AA66" s="17"/>
-      <c r="AB66" s="19"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="13"/>
+      <c r="Y66" s="13"/>
+      <c r="Z66" s="13"/>
+      <c r="AA66" s="13"/>
+      <c r="AB66" s="15"/>
       <c r="AC66" s="10"/>
     </row>
     <row r="67" spans="3:29" x14ac:dyDescent="0.35">
@@ -6110,14 +6110,14 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
-      <c r="U67" s="17"/>
-      <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
-      <c r="Z67" s="17"/>
-      <c r="AA67" s="17"/>
-      <c r="AB67" s="19"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
+      <c r="X67" s="13"/>
+      <c r="Y67" s="13"/>
+      <c r="Z67" s="13"/>
+      <c r="AA67" s="13"/>
+      <c r="AB67" s="15"/>
       <c r="AC67" s="10"/>
     </row>
     <row r="68" spans="3:29" x14ac:dyDescent="0.35">
@@ -6139,14 +6139,14 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
-      <c r="U68" s="17"/>
-      <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="17"/>
-      <c r="Z68" s="17"/>
-      <c r="AA68" s="17"/>
-      <c r="AB68" s="19"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="13"/>
+      <c r="AA68" s="13"/>
+      <c r="AB68" s="15"/>
       <c r="AC68" s="10"/>
     </row>
     <row r="69" spans="3:29" x14ac:dyDescent="0.35">
@@ -6168,14 +6168,14 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
-      <c r="U69" s="17"/>
-      <c r="V69" s="17"/>
-      <c r="W69" s="17"/>
-      <c r="X69" s="17"/>
-      <c r="Y69" s="17"/>
-      <c r="Z69" s="17"/>
-      <c r="AA69" s="17"/>
-      <c r="AB69" s="19"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="13"/>
+      <c r="AA69" s="13"/>
+      <c r="AB69" s="15"/>
       <c r="AC69" s="10"/>
     </row>
     <row r="70" spans="3:29" x14ac:dyDescent="0.35">
@@ -6197,14 +6197,14 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
-      <c r="U70" s="17"/>
-      <c r="V70" s="17"/>
-      <c r="W70" s="17"/>
-      <c r="X70" s="17"/>
-      <c r="Y70" s="17"/>
-      <c r="Z70" s="17"/>
-      <c r="AA70" s="17"/>
-      <c r="AB70" s="19"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="13"/>
+      <c r="AA70" s="13"/>
+      <c r="AB70" s="15"/>
       <c r="AC70" s="10"/>
     </row>
     <row r="71" spans="3:29" x14ac:dyDescent="0.35">
@@ -6226,14 +6226,14 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17"/>
-      <c r="W71" s="17"/>
-      <c r="X71" s="17"/>
-      <c r="Y71" s="17"/>
-      <c r="Z71" s="17"/>
-      <c r="AA71" s="17"/>
-      <c r="AB71" s="19"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
+      <c r="Y71" s="13"/>
+      <c r="Z71" s="13"/>
+      <c r="AA71" s="13"/>
+      <c r="AB71" s="15"/>
       <c r="AC71" s="10"/>
     </row>
     <row r="72" spans="3:29" x14ac:dyDescent="0.35">
@@ -6255,14 +6255,14 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
-      <c r="U72" s="17"/>
-      <c r="V72" s="17"/>
-      <c r="W72" s="17"/>
-      <c r="X72" s="17"/>
-      <c r="Y72" s="17"/>
-      <c r="Z72" s="17"/>
-      <c r="AA72" s="17"/>
-      <c r="AB72" s="19"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
+      <c r="Z72" s="13"/>
+      <c r="AA72" s="13"/>
+      <c r="AB72" s="15"/>
       <c r="AC72" s="10"/>
     </row>
     <row r="73" spans="3:29" x14ac:dyDescent="0.35">
@@ -6284,14 +6284,14 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
-      <c r="U73" s="17"/>
-      <c r="V73" s="17"/>
-      <c r="W73" s="17"/>
-      <c r="X73" s="17"/>
-      <c r="Y73" s="17"/>
-      <c r="Z73" s="17"/>
-      <c r="AA73" s="17"/>
-      <c r="AB73" s="19"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
+      <c r="X73" s="13"/>
+      <c r="Y73" s="13"/>
+      <c r="Z73" s="13"/>
+      <c r="AA73" s="13"/>
+      <c r="AB73" s="15"/>
       <c r="AC73" s="10"/>
     </row>
     <row r="74" spans="3:29" x14ac:dyDescent="0.35">
@@ -6313,14 +6313,14 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
-      <c r="U74" s="17"/>
-      <c r="V74" s="17"/>
-      <c r="W74" s="17"/>
-      <c r="X74" s="17"/>
-      <c r="Y74" s="17"/>
-      <c r="Z74" s="17"/>
-      <c r="AA74" s="17"/>
-      <c r="AB74" s="19"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="13"/>
+      <c r="Z74" s="13"/>
+      <c r="AA74" s="13"/>
+      <c r="AB74" s="15"/>
       <c r="AC74" s="10"/>
     </row>
     <row r="75" spans="3:29" x14ac:dyDescent="0.35">
@@ -6342,14 +6342,14 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
-      <c r="U75" s="17"/>
-      <c r="V75" s="17"/>
-      <c r="W75" s="17"/>
-      <c r="X75" s="17"/>
-      <c r="Y75" s="17"/>
-      <c r="Z75" s="17"/>
-      <c r="AA75" s="17"/>
-      <c r="AB75" s="19"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="15"/>
       <c r="AC75" s="10"/>
     </row>
     <row r="76" spans="3:29" x14ac:dyDescent="0.35">
@@ -6371,14 +6371,14 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
-      <c r="U76" s="17"/>
-      <c r="V76" s="17"/>
-      <c r="W76" s="17"/>
-      <c r="X76" s="17"/>
-      <c r="Y76" s="17"/>
-      <c r="Z76" s="17"/>
-      <c r="AA76" s="17"/>
-      <c r="AB76" s="19"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="13"/>
+      <c r="W76" s="13"/>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="13"/>
+      <c r="Z76" s="13"/>
+      <c r="AA76" s="13"/>
+      <c r="AB76" s="15"/>
       <c r="AC76" s="10"/>
     </row>
     <row r="77" spans="3:29" x14ac:dyDescent="0.35">
@@ -6400,14 +6400,14 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
-      <c r="U77" s="17"/>
-      <c r="V77" s="17"/>
-      <c r="W77" s="17"/>
-      <c r="X77" s="17"/>
-      <c r="Y77" s="17"/>
-      <c r="Z77" s="17"/>
-      <c r="AA77" s="17"/>
-      <c r="AB77" s="19"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13"/>
+      <c r="X77" s="13"/>
+      <c r="Y77" s="13"/>
+      <c r="Z77" s="13"/>
+      <c r="AA77" s="13"/>
+      <c r="AB77" s="15"/>
       <c r="AC77" s="10"/>
     </row>
     <row r="78" spans="3:29" x14ac:dyDescent="0.35">
@@ -6429,189 +6429,189 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
-      <c r="U78" s="17"/>
-      <c r="V78" s="17"/>
-      <c r="W78" s="17"/>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="17"/>
-      <c r="Z78" s="17"/>
-      <c r="AA78" s="17"/>
-      <c r="AB78" s="19"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="13"/>
+      <c r="X78" s="13"/>
+      <c r="Y78" s="13"/>
+      <c r="Z78" s="13"/>
+      <c r="AA78" s="13"/>
+      <c r="AB78" s="15"/>
       <c r="AC78" s="10"/>
     </row>
     <row r="79" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="18"/>
-      <c r="AA79" s="18"/>
+      <c r="U79" s="14"/>
+      <c r="V79" s="14"/>
+      <c r="W79" s="14"/>
+      <c r="X79" s="14"/>
+      <c r="Y79" s="14"/>
+      <c r="Z79" s="14"/>
+      <c r="AA79" s="14"/>
       <c r="AB79" s="10"/>
       <c r="AC79" s="10"/>
     </row>
     <row r="80" spans="3:29" x14ac:dyDescent="0.35">
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
+      <c r="U80" s="14"/>
+      <c r="V80" s="14"/>
+      <c r="W80" s="14"/>
+      <c r="X80" s="14"/>
+      <c r="Y80" s="14"/>
+      <c r="Z80" s="14"/>
+      <c r="AA80" s="14"/>
       <c r="AB80" s="10"/>
       <c r="AC80" s="10"/>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U81" s="18"/>
-      <c r="V81" s="18"/>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="18"/>
-      <c r="AA81" s="18"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="14"/>
+      <c r="W81" s="14"/>
+      <c r="X81" s="14"/>
+      <c r="Y81" s="14"/>
+      <c r="Z81" s="14"/>
+      <c r="AA81" s="14"/>
       <c r="AB81" s="10"/>
       <c r="AC81" s="10"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U82" s="18"/>
-      <c r="V82" s="18"/>
-      <c r="W82" s="18"/>
-      <c r="X82" s="18"/>
-      <c r="Y82" s="18"/>
-      <c r="Z82" s="18"/>
-      <c r="AA82" s="18"/>
+      <c r="U82" s="14"/>
+      <c r="V82" s="14"/>
+      <c r="W82" s="14"/>
+      <c r="X82" s="14"/>
+      <c r="Y82" s="14"/>
+      <c r="Z82" s="14"/>
+      <c r="AA82" s="14"/>
       <c r="AB82" s="10"/>
       <c r="AC82" s="10"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U83" s="18"/>
-      <c r="V83" s="18"/>
-      <c r="W83" s="18"/>
-      <c r="X83" s="18"/>
-      <c r="Y83" s="18"/>
-      <c r="Z83" s="18"/>
-      <c r="AA83" s="18"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="14"/>
+      <c r="W83" s="14"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="14"/>
+      <c r="Z83" s="14"/>
+      <c r="AA83" s="14"/>
       <c r="AB83" s="10"/>
       <c r="AC83" s="10"/>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U84" s="18"/>
-      <c r="V84" s="18"/>
-      <c r="W84" s="18"/>
-      <c r="X84" s="18"/>
-      <c r="Y84" s="18"/>
-      <c r="Z84" s="18"/>
-      <c r="AA84" s="18"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="14"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="14"/>
+      <c r="Y84" s="14"/>
+      <c r="Z84" s="14"/>
+      <c r="AA84" s="14"/>
       <c r="AB84" s="10"/>
       <c r="AC84" s="10"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U85" s="18"/>
-      <c r="V85" s="18"/>
-      <c r="W85" s="18"/>
-      <c r="X85" s="18"/>
-      <c r="Y85" s="18"/>
-      <c r="Z85" s="18"/>
-      <c r="AA85" s="18"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="14"/>
+      <c r="W85" s="14"/>
+      <c r="X85" s="14"/>
+      <c r="Y85" s="14"/>
+      <c r="Z85" s="14"/>
+      <c r="AA85" s="14"/>
       <c r="AB85" s="10"/>
       <c r="AC85" s="10"/>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U86" s="18"/>
-      <c r="V86" s="18"/>
-      <c r="W86" s="18"/>
-      <c r="X86" s="18"/>
-      <c r="Y86" s="18"/>
-      <c r="Z86" s="18"/>
-      <c r="AA86" s="18"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="14"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="14"/>
+      <c r="Y86" s="14"/>
+      <c r="Z86" s="14"/>
+      <c r="AA86" s="14"/>
       <c r="AB86" s="10"/>
       <c r="AC86" s="10"/>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U87" s="18"/>
-      <c r="V87" s="18"/>
-      <c r="W87" s="18"/>
-      <c r="X87" s="18"/>
-      <c r="Y87" s="18"/>
-      <c r="Z87" s="18"/>
-      <c r="AA87" s="18"/>
+      <c r="U87" s="14"/>
+      <c r="V87" s="14"/>
+      <c r="W87" s="14"/>
+      <c r="X87" s="14"/>
+      <c r="Y87" s="14"/>
+      <c r="Z87" s="14"/>
+      <c r="AA87" s="14"/>
       <c r="AB87" s="10"/>
       <c r="AC87" s="10"/>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U88" s="18"/>
-      <c r="V88" s="18"/>
-      <c r="W88" s="18"/>
-      <c r="X88" s="18"/>
-      <c r="Y88" s="18"/>
-      <c r="Z88" s="18"/>
-      <c r="AA88" s="18"/>
+      <c r="U88" s="14"/>
+      <c r="V88" s="14"/>
+      <c r="W88" s="14"/>
+      <c r="X88" s="14"/>
+      <c r="Y88" s="14"/>
+      <c r="Z88" s="14"/>
+      <c r="AA88" s="14"/>
       <c r="AB88" s="10"/>
       <c r="AC88" s="10"/>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U89" s="18"/>
-      <c r="V89" s="18"/>
-      <c r="W89" s="18"/>
-      <c r="X89" s="18"/>
-      <c r="Y89" s="18"/>
-      <c r="Z89" s="18"/>
-      <c r="AA89" s="18"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="14"/>
+      <c r="W89" s="14"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="14"/>
+      <c r="Z89" s="14"/>
+      <c r="AA89" s="14"/>
       <c r="AB89" s="10"/>
       <c r="AC89" s="10"/>
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U90" s="18"/>
-      <c r="V90" s="18"/>
-      <c r="W90" s="18"/>
-      <c r="X90" s="18"/>
-      <c r="Y90" s="18"/>
-      <c r="Z90" s="18"/>
-      <c r="AA90" s="18"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="14"/>
+      <c r="W90" s="14"/>
+      <c r="X90" s="14"/>
+      <c r="Y90" s="14"/>
+      <c r="Z90" s="14"/>
+      <c r="AA90" s="14"/>
       <c r="AB90" s="10"/>
       <c r="AC90" s="10"/>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U91" s="18"/>
-      <c r="V91" s="18"/>
-      <c r="W91" s="18"/>
-      <c r="X91" s="18"/>
-      <c r="Y91" s="18"/>
-      <c r="Z91" s="18"/>
-      <c r="AA91" s="18"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="14"/>
+      <c r="W91" s="14"/>
+      <c r="X91" s="14"/>
+      <c r="Y91" s="14"/>
+      <c r="Z91" s="14"/>
+      <c r="AA91" s="14"/>
       <c r="AB91" s="10"/>
       <c r="AC91" s="10"/>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U92" s="18"/>
-      <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="18"/>
-      <c r="AA92" s="18"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="14"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="14"/>
+      <c r="Y92" s="14"/>
+      <c r="Z92" s="14"/>
+      <c r="AA92" s="14"/>
       <c r="AB92" s="10"/>
       <c r="AC92" s="10"/>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U93" s="18"/>
-      <c r="V93" s="18"/>
-      <c r="W93" s="18"/>
-      <c r="X93" s="18"/>
-      <c r="Y93" s="18"/>
-      <c r="Z93" s="18"/>
-      <c r="AA93" s="18"/>
+      <c r="U93" s="14"/>
+      <c r="V93" s="14"/>
+      <c r="W93" s="14"/>
+      <c r="X93" s="14"/>
+      <c r="Y93" s="14"/>
+      <c r="Z93" s="14"/>
+      <c r="AA93" s="14"/>
       <c r="AB93" s="10"/>
       <c r="AC93" s="10"/>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="U94" s="18"/>
-      <c r="V94" s="18"/>
-      <c r="W94" s="18"/>
-      <c r="X94" s="18"/>
-      <c r="Y94" s="18"/>
-      <c r="Z94" s="18"/>
-      <c r="AA94" s="18"/>
+      <c r="U94" s="14"/>
+      <c r="V94" s="14"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="14"/>
+      <c r="Y94" s="14"/>
+      <c r="Z94" s="14"/>
+      <c r="AA94" s="14"/>
       <c r="AB94" s="10"/>
       <c r="AC94" s="10"/>
     </row>
@@ -6633,13 +6633,13 @@
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
       <c r="Q95" s="10"/>
-      <c r="U95" s="18"/>
-      <c r="V95" s="18"/>
-      <c r="W95" s="18"/>
-      <c r="X95" s="18"/>
-      <c r="Y95" s="18"/>
-      <c r="Z95" s="18"/>
-      <c r="AA95" s="18"/>
+      <c r="U95" s="14"/>
+      <c r="V95" s="14"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="14"/>
+      <c r="Y95" s="14"/>
+      <c r="Z95" s="14"/>
+      <c r="AA95" s="14"/>
       <c r="AB95" s="10"/>
       <c r="AC95" s="10"/>
     </row>
@@ -6661,13 +6661,13 @@
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
       <c r="Q96" s="10"/>
-      <c r="U96" s="18"/>
-      <c r="V96" s="18"/>
-      <c r="W96" s="18"/>
-      <c r="X96" s="18"/>
-      <c r="Y96" s="18"/>
-      <c r="Z96" s="18"/>
-      <c r="AA96" s="18"/>
+      <c r="U96" s="14"/>
+      <c r="V96" s="14"/>
+      <c r="W96" s="14"/>
+      <c r="X96" s="14"/>
+      <c r="Y96" s="14"/>
+      <c r="Z96" s="14"/>
+      <c r="AA96" s="14"/>
       <c r="AB96" s="10"/>
       <c r="AC96" s="10"/>
     </row>
@@ -6689,13 +6689,13 @@
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
       <c r="Q97" s="10"/>
-      <c r="U97" s="18"/>
-      <c r="V97" s="18"/>
-      <c r="W97" s="18"/>
-      <c r="X97" s="18"/>
-      <c r="Y97" s="18"/>
-      <c r="Z97" s="18"/>
-      <c r="AA97" s="18"/>
+      <c r="U97" s="14"/>
+      <c r="V97" s="14"/>
+      <c r="W97" s="14"/>
+      <c r="X97" s="14"/>
+      <c r="Y97" s="14"/>
+      <c r="Z97" s="14"/>
+      <c r="AA97" s="14"/>
       <c r="AB97" s="10"/>
       <c r="AC97" s="10"/>
     </row>
@@ -6717,13 +6717,13 @@
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
       <c r="Q98" s="10"/>
-      <c r="U98" s="18"/>
-      <c r="V98" s="18"/>
-      <c r="W98" s="18"/>
-      <c r="X98" s="18"/>
-      <c r="Y98" s="18"/>
-      <c r="Z98" s="18"/>
-      <c r="AA98" s="18"/>
+      <c r="U98" s="14"/>
+      <c r="V98" s="14"/>
+      <c r="W98" s="14"/>
+      <c r="X98" s="14"/>
+      <c r="Y98" s="14"/>
+      <c r="Z98" s="14"/>
+      <c r="AA98" s="14"/>
       <c r="AB98" s="10"/>
       <c r="AC98" s="10"/>
     </row>
@@ -6745,13 +6745,13 @@
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
       <c r="Q99" s="10"/>
-      <c r="U99" s="18"/>
-      <c r="V99" s="18"/>
-      <c r="W99" s="18"/>
-      <c r="X99" s="18"/>
-      <c r="Y99" s="18"/>
-      <c r="Z99" s="18"/>
-      <c r="AA99" s="18"/>
+      <c r="U99" s="14"/>
+      <c r="V99" s="14"/>
+      <c r="W99" s="14"/>
+      <c r="X99" s="14"/>
+      <c r="Y99" s="14"/>
+      <c r="Z99" s="14"/>
+      <c r="AA99" s="14"/>
       <c r="AB99" s="10"/>
       <c r="AC99" s="10"/>
     </row>
@@ -6773,15 +6773,15 @@
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
       <c r="Q100" s="10"/>
-      <c r="U100" s="18"/>
-      <c r="V100" s="18"/>
-      <c r="W100" s="18"/>
-      <c r="X100" s="18"/>
-      <c r="Y100" s="18"/>
-      <c r="Z100" s="18"/>
-      <c r="AA100" s="18"/>
-      <c r="AB100" s="18"/>
-      <c r="AC100" s="18"/>
+      <c r="U100" s="14"/>
+      <c r="V100" s="14"/>
+      <c r="W100" s="14"/>
+      <c r="X100" s="14"/>
+      <c r="Y100" s="14"/>
+      <c r="Z100" s="14"/>
+      <c r="AA100" s="14"/>
+      <c r="AB100" s="14"/>
+      <c r="AC100" s="14"/>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A101" s="10"/>
@@ -6801,15 +6801,15 @@
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
       <c r="Q101" s="10"/>
-      <c r="U101" s="18"/>
-      <c r="V101" s="18"/>
-      <c r="W101" s="18"/>
-      <c r="X101" s="18"/>
-      <c r="Y101" s="18"/>
-      <c r="Z101" s="18"/>
-      <c r="AA101" s="18"/>
-      <c r="AB101" s="18"/>
-      <c r="AC101" s="18"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="14"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="14"/>
+      <c r="Y101" s="14"/>
+      <c r="Z101" s="14"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="14"/>
+      <c r="AC101" s="14"/>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A102" s="10"/>
@@ -6829,15 +6829,15 @@
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
       <c r="Q102" s="10"/>
-      <c r="U102" s="18"/>
-      <c r="V102" s="18"/>
-      <c r="W102" s="18"/>
-      <c r="X102" s="18"/>
-      <c r="Y102" s="18"/>
-      <c r="Z102" s="18"/>
-      <c r="AA102" s="18"/>
-      <c r="AB102" s="18"/>
-      <c r="AC102" s="18"/>
+      <c r="U102" s="14"/>
+      <c r="V102" s="14"/>
+      <c r="W102" s="14"/>
+      <c r="X102" s="14"/>
+      <c r="Y102" s="14"/>
+      <c r="Z102" s="14"/>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="14"/>
+      <c r="AC102" s="14"/>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A103" s="10"/>
@@ -6857,15 +6857,15 @@
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
       <c r="Q103" s="10"/>
-      <c r="U103" s="18"/>
-      <c r="V103" s="18"/>
-      <c r="W103" s="18"/>
-      <c r="X103" s="18"/>
-      <c r="Y103" s="18"/>
-      <c r="Z103" s="18"/>
-      <c r="AA103" s="18"/>
-      <c r="AB103" s="18"/>
-      <c r="AC103" s="18"/>
+      <c r="U103" s="14"/>
+      <c r="V103" s="14"/>
+      <c r="W103" s="14"/>
+      <c r="X103" s="14"/>
+      <c r="Y103" s="14"/>
+      <c r="Z103" s="14"/>
+      <c r="AA103" s="14"/>
+      <c r="AB103" s="14"/>
+      <c r="AC103" s="14"/>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A104" s="10"/>
@@ -6885,15 +6885,15 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
       <c r="Q104" s="10"/>
-      <c r="U104" s="18"/>
-      <c r="V104" s="18"/>
-      <c r="W104" s="18"/>
-      <c r="X104" s="18"/>
-      <c r="Y104" s="18"/>
-      <c r="Z104" s="18"/>
-      <c r="AA104" s="18"/>
-      <c r="AB104" s="18"/>
-      <c r="AC104" s="18"/>
+      <c r="U104" s="14"/>
+      <c r="V104" s="14"/>
+      <c r="W104" s="14"/>
+      <c r="X104" s="14"/>
+      <c r="Y104" s="14"/>
+      <c r="Z104" s="14"/>
+      <c r="AA104" s="14"/>
+      <c r="AB104" s="14"/>
+      <c r="AC104" s="14"/>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A105" s="10"/>
@@ -6913,15 +6913,15 @@
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
       <c r="Q105" s="10"/>
-      <c r="U105" s="18"/>
-      <c r="V105" s="18"/>
-      <c r="W105" s="18"/>
-      <c r="X105" s="18"/>
-      <c r="Y105" s="18"/>
-      <c r="Z105" s="18"/>
-      <c r="AA105" s="18"/>
-      <c r="AB105" s="18"/>
-      <c r="AC105" s="18"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="14"/>
+      <c r="W105" s="14"/>
+      <c r="X105" s="14"/>
+      <c r="Y105" s="14"/>
+      <c r="Z105" s="14"/>
+      <c r="AA105" s="14"/>
+      <c r="AB105" s="14"/>
+      <c r="AC105" s="14"/>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A106" s="10"/>
@@ -6941,15 +6941,15 @@
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
       <c r="Q106" s="10"/>
-      <c r="U106" s="18"/>
-      <c r="V106" s="18"/>
-      <c r="W106" s="18"/>
-      <c r="X106" s="18"/>
-      <c r="Y106" s="18"/>
-      <c r="Z106" s="18"/>
-      <c r="AA106" s="18"/>
-      <c r="AB106" s="18"/>
-      <c r="AC106" s="18"/>
+      <c r="U106" s="14"/>
+      <c r="V106" s="14"/>
+      <c r="W106" s="14"/>
+      <c r="X106" s="14"/>
+      <c r="Y106" s="14"/>
+      <c r="Z106" s="14"/>
+      <c r="AA106" s="14"/>
+      <c r="AB106" s="14"/>
+      <c r="AC106" s="14"/>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A107" s="10"/>
@@ -6969,15 +6969,15 @@
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
       <c r="Q107" s="10"/>
-      <c r="U107" s="18"/>
-      <c r="V107" s="18"/>
-      <c r="W107" s="18"/>
-      <c r="X107" s="18"/>
-      <c r="Y107" s="18"/>
-      <c r="Z107" s="18"/>
-      <c r="AA107" s="18"/>
-      <c r="AB107" s="18"/>
-      <c r="AC107" s="18"/>
+      <c r="U107" s="14"/>
+      <c r="V107" s="14"/>
+      <c r="W107" s="14"/>
+      <c r="X107" s="14"/>
+      <c r="Y107" s="14"/>
+      <c r="Z107" s="14"/>
+      <c r="AA107" s="14"/>
+      <c r="AB107" s="14"/>
+      <c r="AC107" s="14"/>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A108" s="10"/>
@@ -6997,15 +6997,15 @@
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
       <c r="Q108" s="10"/>
-      <c r="U108" s="18"/>
-      <c r="V108" s="18"/>
-      <c r="W108" s="18"/>
-      <c r="X108" s="18"/>
-      <c r="Y108" s="18"/>
-      <c r="Z108" s="18"/>
-      <c r="AA108" s="18"/>
-      <c r="AB108" s="18"/>
-      <c r="AC108" s="18"/>
+      <c r="U108" s="14"/>
+      <c r="V108" s="14"/>
+      <c r="W108" s="14"/>
+      <c r="X108" s="14"/>
+      <c r="Y108" s="14"/>
+      <c r="Z108" s="14"/>
+      <c r="AA108" s="14"/>
+      <c r="AB108" s="14"/>
+      <c r="AC108" s="14"/>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A109" s="10"/>
@@ -7025,15 +7025,15 @@
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
       <c r="Q109" s="10"/>
-      <c r="U109" s="18"/>
-      <c r="V109" s="18"/>
-      <c r="W109" s="18"/>
-      <c r="X109" s="18"/>
-      <c r="Y109" s="18"/>
-      <c r="Z109" s="18"/>
-      <c r="AA109" s="18"/>
-      <c r="AB109" s="18"/>
-      <c r="AC109" s="18"/>
+      <c r="U109" s="14"/>
+      <c r="V109" s="14"/>
+      <c r="W109" s="14"/>
+      <c r="X109" s="14"/>
+      <c r="Y109" s="14"/>
+      <c r="Z109" s="14"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="14"/>
+      <c r="AC109" s="14"/>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A110" s="10"/>
@@ -7053,15 +7053,15 @@
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
       <c r="Q110" s="10"/>
-      <c r="U110" s="18"/>
-      <c r="V110" s="18"/>
-      <c r="W110" s="18"/>
-      <c r="X110" s="18"/>
-      <c r="Y110" s="18"/>
-      <c r="Z110" s="18"/>
-      <c r="AA110" s="18"/>
-      <c r="AB110" s="18"/>
-      <c r="AC110" s="18"/>
+      <c r="U110" s="14"/>
+      <c r="V110" s="14"/>
+      <c r="W110" s="14"/>
+      <c r="X110" s="14"/>
+      <c r="Y110" s="14"/>
+      <c r="Z110" s="14"/>
+      <c r="AA110" s="14"/>
+      <c r="AB110" s="14"/>
+      <c r="AC110" s="14"/>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A111" s="10"/>
@@ -7081,15 +7081,15 @@
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
       <c r="Q111" s="10"/>
-      <c r="U111" s="18"/>
-      <c r="V111" s="18"/>
-      <c r="W111" s="18"/>
-      <c r="X111" s="18"/>
-      <c r="Y111" s="18"/>
-      <c r="Z111" s="18"/>
-      <c r="AA111" s="18"/>
-      <c r="AB111" s="18"/>
-      <c r="AC111" s="18"/>
+      <c r="U111" s="14"/>
+      <c r="V111" s="14"/>
+      <c r="W111" s="14"/>
+      <c r="X111" s="14"/>
+      <c r="Y111" s="14"/>
+      <c r="Z111" s="14"/>
+      <c r="AA111" s="14"/>
+      <c r="AB111" s="14"/>
+      <c r="AC111" s="14"/>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A112" s="10"/>
@@ -7109,15 +7109,15 @@
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
       <c r="Q112" s="10"/>
-      <c r="U112" s="18"/>
-      <c r="V112" s="18"/>
-      <c r="W112" s="18"/>
-      <c r="X112" s="18"/>
-      <c r="Y112" s="18"/>
-      <c r="Z112" s="18"/>
-      <c r="AA112" s="18"/>
-      <c r="AB112" s="18"/>
-      <c r="AC112" s="18"/>
+      <c r="U112" s="14"/>
+      <c r="V112" s="14"/>
+      <c r="W112" s="14"/>
+      <c r="X112" s="14"/>
+      <c r="Y112" s="14"/>
+      <c r="Z112" s="14"/>
+      <c r="AA112" s="14"/>
+      <c r="AB112" s="14"/>
+      <c r="AC112" s="14"/>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A113" s="10"/>
@@ -7137,15 +7137,15 @@
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
-      <c r="U113" s="18"/>
-      <c r="V113" s="18"/>
-      <c r="W113" s="18"/>
-      <c r="X113" s="18"/>
-      <c r="Y113" s="18"/>
-      <c r="Z113" s="18"/>
-      <c r="AA113" s="18"/>
-      <c r="AB113" s="18"/>
-      <c r="AC113" s="18"/>
+      <c r="U113" s="14"/>
+      <c r="V113" s="14"/>
+      <c r="W113" s="14"/>
+      <c r="X113" s="14"/>
+      <c r="Y113" s="14"/>
+      <c r="Z113" s="14"/>
+      <c r="AA113" s="14"/>
+      <c r="AB113" s="14"/>
+      <c r="AC113" s="14"/>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A114" s="10"/>
@@ -7165,15 +7165,15 @@
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
       <c r="Q114" s="10"/>
-      <c r="U114" s="18"/>
-      <c r="V114" s="18"/>
-      <c r="W114" s="18"/>
-      <c r="X114" s="18"/>
-      <c r="Y114" s="18"/>
-      <c r="Z114" s="18"/>
-      <c r="AA114" s="18"/>
-      <c r="AB114" s="18"/>
-      <c r="AC114" s="18"/>
+      <c r="U114" s="14"/>
+      <c r="V114" s="14"/>
+      <c r="W114" s="14"/>
+      <c r="X114" s="14"/>
+      <c r="Y114" s="14"/>
+      <c r="Z114" s="14"/>
+      <c r="AA114" s="14"/>
+      <c r="AB114" s="14"/>
+      <c r="AC114" s="14"/>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A115" s="10"/>
@@ -7193,15 +7193,15 @@
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
       <c r="Q115" s="10"/>
-      <c r="U115" s="18"/>
-      <c r="V115" s="18"/>
-      <c r="W115" s="18"/>
-      <c r="X115" s="18"/>
-      <c r="Y115" s="18"/>
-      <c r="Z115" s="18"/>
-      <c r="AA115" s="18"/>
-      <c r="AB115" s="18"/>
-      <c r="AC115" s="18"/>
+      <c r="U115" s="14"/>
+      <c r="V115" s="14"/>
+      <c r="W115" s="14"/>
+      <c r="X115" s="14"/>
+      <c r="Y115" s="14"/>
+      <c r="Z115" s="14"/>
+      <c r="AA115" s="14"/>
+      <c r="AB115" s="14"/>
+      <c r="AC115" s="14"/>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A116" s="10"/>
@@ -7221,15 +7221,15 @@
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
       <c r="Q116" s="10"/>
-      <c r="U116" s="18"/>
-      <c r="V116" s="18"/>
-      <c r="W116" s="18"/>
-      <c r="X116" s="18"/>
-      <c r="Y116" s="18"/>
-      <c r="Z116" s="18"/>
-      <c r="AA116" s="18"/>
-      <c r="AB116" s="18"/>
-      <c r="AC116" s="18"/>
+      <c r="U116" s="14"/>
+      <c r="V116" s="14"/>
+      <c r="W116" s="14"/>
+      <c r="X116" s="14"/>
+      <c r="Y116" s="14"/>
+      <c r="Z116" s="14"/>
+      <c r="AA116" s="14"/>
+      <c r="AB116" s="14"/>
+      <c r="AC116" s="14"/>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A117" s="10"/>
@@ -7249,15 +7249,15 @@
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
       <c r="Q117" s="10"/>
-      <c r="U117" s="18"/>
-      <c r="V117" s="18"/>
-      <c r="W117" s="18"/>
-      <c r="X117" s="18"/>
-      <c r="Y117" s="18"/>
-      <c r="Z117" s="18"/>
-      <c r="AA117" s="18"/>
-      <c r="AB117" s="18"/>
-      <c r="AC117" s="18"/>
+      <c r="U117" s="14"/>
+      <c r="V117" s="14"/>
+      <c r="W117" s="14"/>
+      <c r="X117" s="14"/>
+      <c r="Y117" s="14"/>
+      <c r="Z117" s="14"/>
+      <c r="AA117" s="14"/>
+      <c r="AB117" s="14"/>
+      <c r="AC117" s="14"/>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A118" s="10"/>
@@ -7277,15 +7277,15 @@
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
       <c r="Q118" s="10"/>
-      <c r="U118" s="18"/>
-      <c r="V118" s="18"/>
-      <c r="W118" s="18"/>
-      <c r="X118" s="18"/>
-      <c r="Y118" s="18"/>
-      <c r="Z118" s="18"/>
-      <c r="AA118" s="18"/>
-      <c r="AB118" s="18"/>
-      <c r="AC118" s="18"/>
+      <c r="U118" s="14"/>
+      <c r="V118" s="14"/>
+      <c r="W118" s="14"/>
+      <c r="X118" s="14"/>
+      <c r="Y118" s="14"/>
+      <c r="Z118" s="14"/>
+      <c r="AA118" s="14"/>
+      <c r="AB118" s="14"/>
+      <c r="AC118" s="14"/>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A119" s="10"/>
@@ -7305,15 +7305,15 @@
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
       <c r="Q119" s="10"/>
-      <c r="U119" s="18"/>
-      <c r="V119" s="18"/>
-      <c r="W119" s="18"/>
-      <c r="X119" s="18"/>
-      <c r="Y119" s="18"/>
-      <c r="Z119" s="18"/>
-      <c r="AA119" s="18"/>
-      <c r="AB119" s="18"/>
-      <c r="AC119" s="18"/>
+      <c r="U119" s="14"/>
+      <c r="V119" s="14"/>
+      <c r="W119" s="14"/>
+      <c r="X119" s="14"/>
+      <c r="Y119" s="14"/>
+      <c r="Z119" s="14"/>
+      <c r="AA119" s="14"/>
+      <c r="AB119" s="14"/>
+      <c r="AC119" s="14"/>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A120" s="10"/>
@@ -7333,15 +7333,15 @@
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
       <c r="Q120" s="10"/>
-      <c r="U120" s="18"/>
-      <c r="V120" s="18"/>
-      <c r="W120" s="18"/>
-      <c r="X120" s="18"/>
-      <c r="Y120" s="18"/>
-      <c r="Z120" s="18"/>
-      <c r="AA120" s="18"/>
-      <c r="AB120" s="18"/>
-      <c r="AC120" s="18"/>
+      <c r="U120" s="14"/>
+      <c r="V120" s="14"/>
+      <c r="W120" s="14"/>
+      <c r="X120" s="14"/>
+      <c r="Y120" s="14"/>
+      <c r="Z120" s="14"/>
+      <c r="AA120" s="14"/>
+      <c r="AB120" s="14"/>
+      <c r="AC120" s="14"/>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A121" s="10"/>
@@ -7361,15 +7361,15 @@
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
       <c r="Q121" s="10"/>
-      <c r="U121" s="18"/>
-      <c r="V121" s="18"/>
-      <c r="W121" s="18"/>
-      <c r="X121" s="18"/>
-      <c r="Y121" s="18"/>
-      <c r="Z121" s="18"/>
-      <c r="AA121" s="18"/>
-      <c r="AB121" s="18"/>
-      <c r="AC121" s="18"/>
+      <c r="U121" s="14"/>
+      <c r="V121" s="14"/>
+      <c r="W121" s="14"/>
+      <c r="X121" s="14"/>
+      <c r="Y121" s="14"/>
+      <c r="Z121" s="14"/>
+      <c r="AA121" s="14"/>
+      <c r="AB121" s="14"/>
+      <c r="AC121" s="14"/>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A122" s="10"/>
@@ -7389,15 +7389,15 @@
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
       <c r="Q122" s="10"/>
-      <c r="U122" s="18"/>
-      <c r="V122" s="18"/>
-      <c r="W122" s="18"/>
-      <c r="X122" s="18"/>
-      <c r="Y122" s="18"/>
-      <c r="Z122" s="18"/>
-      <c r="AA122" s="18"/>
-      <c r="AB122" s="18"/>
-      <c r="AC122" s="18"/>
+      <c r="U122" s="14"/>
+      <c r="V122" s="14"/>
+      <c r="W122" s="14"/>
+      <c r="X122" s="14"/>
+      <c r="Y122" s="14"/>
+      <c r="Z122" s="14"/>
+      <c r="AA122" s="14"/>
+      <c r="AB122" s="14"/>
+      <c r="AC122" s="14"/>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A123" s="10"/>
@@ -7417,15 +7417,15 @@
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
       <c r="Q123" s="10"/>
-      <c r="U123" s="18"/>
-      <c r="V123" s="18"/>
-      <c r="W123" s="18"/>
-      <c r="X123" s="18"/>
-      <c r="Y123" s="18"/>
-      <c r="Z123" s="18"/>
-      <c r="AA123" s="18"/>
-      <c r="AB123" s="18"/>
-      <c r="AC123" s="18"/>
+      <c r="U123" s="14"/>
+      <c r="V123" s="14"/>
+      <c r="W123" s="14"/>
+      <c r="X123" s="14"/>
+      <c r="Y123" s="14"/>
+      <c r="Z123" s="14"/>
+      <c r="AA123" s="14"/>
+      <c r="AB123" s="14"/>
+      <c r="AC123" s="14"/>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A124" s="10"/>
@@ -7445,15 +7445,15 @@
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
       <c r="Q124" s="10"/>
-      <c r="U124" s="18"/>
-      <c r="V124" s="18"/>
-      <c r="W124" s="18"/>
-      <c r="X124" s="18"/>
-      <c r="Y124" s="18"/>
-      <c r="Z124" s="18"/>
-      <c r="AA124" s="18"/>
-      <c r="AB124" s="18"/>
-      <c r="AC124" s="18"/>
+      <c r="U124" s="14"/>
+      <c r="V124" s="14"/>
+      <c r="W124" s="14"/>
+      <c r="X124" s="14"/>
+      <c r="Y124" s="14"/>
+      <c r="Z124" s="14"/>
+      <c r="AA124" s="14"/>
+      <c r="AB124" s="14"/>
+      <c r="AC124" s="14"/>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A125" s="10"/>
@@ -7473,15 +7473,15 @@
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
       <c r="Q125" s="10"/>
-      <c r="U125" s="18"/>
-      <c r="V125" s="18"/>
-      <c r="W125" s="18"/>
-      <c r="X125" s="18"/>
-      <c r="Y125" s="18"/>
-      <c r="Z125" s="18"/>
-      <c r="AA125" s="18"/>
-      <c r="AB125" s="18"/>
-      <c r="AC125" s="18"/>
+      <c r="U125" s="14"/>
+      <c r="V125" s="14"/>
+      <c r="W125" s="14"/>
+      <c r="X125" s="14"/>
+      <c r="Y125" s="14"/>
+      <c r="Z125" s="14"/>
+      <c r="AA125" s="14"/>
+      <c r="AB125" s="14"/>
+      <c r="AC125" s="14"/>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
@@ -7501,15 +7501,15 @@
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
       <c r="Q126" s="10"/>
-      <c r="U126" s="18"/>
-      <c r="V126" s="18"/>
-      <c r="W126" s="18"/>
-      <c r="X126" s="18"/>
-      <c r="Y126" s="18"/>
-      <c r="Z126" s="18"/>
-      <c r="AA126" s="18"/>
-      <c r="AB126" s="18"/>
-      <c r="AC126" s="18"/>
+      <c r="U126" s="14"/>
+      <c r="V126" s="14"/>
+      <c r="W126" s="14"/>
+      <c r="X126" s="14"/>
+      <c r="Y126" s="14"/>
+      <c r="Z126" s="14"/>
+      <c r="AA126" s="14"/>
+      <c r="AB126" s="14"/>
+      <c r="AC126" s="14"/>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A127" s="10"/>
@@ -7529,15 +7529,15 @@
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
       <c r="Q127" s="10"/>
-      <c r="U127" s="18"/>
-      <c r="V127" s="18"/>
-      <c r="W127" s="18"/>
-      <c r="X127" s="18"/>
-      <c r="Y127" s="18"/>
-      <c r="Z127" s="18"/>
-      <c r="AA127" s="18"/>
-      <c r="AB127" s="18"/>
-      <c r="AC127" s="18"/>
+      <c r="U127" s="14"/>
+      <c r="V127" s="14"/>
+      <c r="W127" s="14"/>
+      <c r="X127" s="14"/>
+      <c r="Y127" s="14"/>
+      <c r="Z127" s="14"/>
+      <c r="AA127" s="14"/>
+      <c r="AB127" s="14"/>
+      <c r="AC127" s="14"/>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A128" s="10"/>
@@ -7557,15 +7557,15 @@
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
       <c r="Q128" s="10"/>
-      <c r="U128" s="18"/>
-      <c r="V128" s="18"/>
-      <c r="W128" s="18"/>
-      <c r="X128" s="18"/>
-      <c r="Y128" s="18"/>
-      <c r="Z128" s="18"/>
-      <c r="AA128" s="18"/>
-      <c r="AB128" s="18"/>
-      <c r="AC128" s="18"/>
+      <c r="U128" s="14"/>
+      <c r="V128" s="14"/>
+      <c r="W128" s="14"/>
+      <c r="X128" s="14"/>
+      <c r="Y128" s="14"/>
+      <c r="Z128" s="14"/>
+      <c r="AA128" s="14"/>
+      <c r="AB128" s="14"/>
+      <c r="AC128" s="14"/>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A129" s="10"/>
@@ -7585,15 +7585,15 @@
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
       <c r="Q129" s="10"/>
-      <c r="U129" s="18"/>
-      <c r="V129" s="18"/>
-      <c r="W129" s="18"/>
-      <c r="X129" s="18"/>
-      <c r="Y129" s="18"/>
-      <c r="Z129" s="18"/>
-      <c r="AA129" s="18"/>
-      <c r="AB129" s="18"/>
-      <c r="AC129" s="18"/>
+      <c r="U129" s="14"/>
+      <c r="V129" s="14"/>
+      <c r="W129" s="14"/>
+      <c r="X129" s="14"/>
+      <c r="Y129" s="14"/>
+      <c r="Z129" s="14"/>
+      <c r="AA129" s="14"/>
+      <c r="AB129" s="14"/>
+      <c r="AC129" s="14"/>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A130" s="10"/>
